--- a/data/t-shift.xlsx
+++ b/data/t-shift.xlsx
@@ -888,10 +888,14 @@
           <t>XP</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>休</t>
+        </is>
+      </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>C日</t>
+          <t>休</t>
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
@@ -901,12 +905,12 @@
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
-          <t>休</t>
+          <t>F日</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>C日</t>
+          <t>休</t>
         </is>
       </c>
       <c r="N6" t="inlineStr"/>
@@ -927,7 +931,7 @@
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>休</t>
+          <t>C日</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -935,23 +939,15 @@
           <t>休</t>
         </is>
       </c>
-      <c r="AB6" t="inlineStr"/>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>休</t>
-        </is>
-      </c>
-      <c r="AD6" t="inlineStr">
-        <is>
-          <t>休</t>
-        </is>
-      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>休</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr"/>
+      <c r="AD6" t="inlineStr"/>
       <c r="AE6" t="inlineStr"/>
-      <c r="AF6" t="inlineStr">
-        <is>
-          <t>休</t>
-        </is>
-      </c>
+      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="inlineStr">
         <is>
           <t>休</t>
@@ -959,7 +955,7 @@
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>C日</t>
+          <t>休</t>
         </is>
       </c>
     </row>
@@ -1075,11 +1071,7 @@
           <t>明</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>休</t>
-        </is>
-      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
@@ -1094,11 +1086,27 @@
         </is>
       </c>
       <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>休</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>休</t>
+        </is>
+      </c>
       <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="inlineStr"/>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>C夜</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>明</t>
+        </is>
+      </c>
       <c r="T8" t="inlineStr">
         <is>
           <t>休</t>
@@ -1106,16 +1114,8 @@
       </c>
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
-      <c r="W8" t="inlineStr">
-        <is>
-          <t>C夜</t>
-        </is>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>明</t>
-        </is>
-      </c>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr">
         <is>
@@ -1124,10 +1124,14 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>休</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr"/>
+          <t>C夜</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>明</t>
+        </is>
+      </c>
       <c r="AC8" t="inlineStr"/>
       <c r="AD8" t="inlineStr"/>
       <c r="AE8" t="inlineStr"/>
@@ -1249,7 +1253,11 @@
       <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>休</t>
+        </is>
+      </c>
       <c r="L10" t="inlineStr">
         <is>
           <t>休</t>
@@ -1294,19 +1302,15 @@
       <c r="AC10" t="inlineStr"/>
       <c r="AD10" t="inlineStr"/>
       <c r="AE10" t="inlineStr"/>
-      <c r="AF10" t="inlineStr">
-        <is>
-          <t>休</t>
-        </is>
-      </c>
+      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="inlineStr">
         <is>
-          <t>休</t>
+          <t>F日</t>
         </is>
       </c>
       <c r="AH10" t="inlineStr">
         <is>
-          <t>F日</t>
+          <t>休</t>
         </is>
       </c>
     </row>
@@ -1357,34 +1361,34 @@
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>休</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>休</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>休</t>
+        </is>
+      </c>
       <c r="T11" t="inlineStr">
         <is>
           <t>休</t>
         </is>
       </c>
       <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr"/>
-      <c r="W11" t="inlineStr"/>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>休</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>休</t>
+        </is>
+      </c>
       <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="inlineStr">
-        <is>
-          <t>C夜</t>
-        </is>
-      </c>
+      <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>明</t>
+          <t>F日</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1394,20 +1398,12 @@
       </c>
       <c r="AB11" t="inlineStr"/>
       <c r="AC11" t="inlineStr"/>
-      <c r="AD11" t="inlineStr">
-        <is>
-          <t>C夜</t>
-        </is>
-      </c>
-      <c r="AE11" t="inlineStr">
-        <is>
-          <t>明</t>
-        </is>
-      </c>
+      <c r="AD11" t="inlineStr"/>
+      <c r="AE11" t="inlineStr"/>
       <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="inlineStr">
         <is>
-          <t>休</t>
+          <t>C日</t>
         </is>
       </c>
       <c r="AH11" t="inlineStr">
@@ -1489,27 +1485,19 @@
       <c r="P12" t="inlineStr"/>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="inlineStr"/>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>休</t>
-        </is>
-      </c>
+      <c r="S12" t="inlineStr"/>
       <c r="T12" t="inlineStr">
         <is>
-          <t>休</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr"/>
-      <c r="V12" t="inlineStr">
-        <is>
           <t>A夜</t>
         </is>
       </c>
-      <c r="W12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>明</t>
         </is>
       </c>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
       <c r="X12" t="inlineStr"/>
       <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr">
@@ -1524,17 +1512,25 @@
       </c>
       <c r="AB12" t="inlineStr"/>
       <c r="AC12" t="inlineStr"/>
-      <c r="AD12" t="inlineStr"/>
-      <c r="AE12" t="inlineStr"/>
+      <c r="AD12" t="inlineStr">
+        <is>
+          <t>休</t>
+        </is>
+      </c>
+      <c r="AE12" t="inlineStr">
+        <is>
+          <t>休</t>
+        </is>
+      </c>
       <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="inlineStr">
         <is>
-          <t>F日</t>
+          <t>休</t>
         </is>
       </c>
       <c r="AH12" t="inlineStr">
         <is>
-          <t>休</t>
+          <t>A夜</t>
         </is>
       </c>
     </row>
@@ -1767,7 +1763,11 @@
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr"/>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>休</t>
+        </is>
+      </c>
       <c r="T15" t="inlineStr">
         <is>
           <t>休</t>
@@ -1780,30 +1780,34 @@
       <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>休</t>
+          <t>C夜</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>休</t>
+          <t>明</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr"/>
       <c r="AC15" t="inlineStr">
         <is>
+          <t>休</t>
+        </is>
+      </c>
+      <c r="AD15" t="inlineStr">
+        <is>
+          <t>休</t>
+        </is>
+      </c>
+      <c r="AE15" t="inlineStr"/>
+      <c r="AF15" t="inlineStr">
+        <is>
           <t>C夜</t>
         </is>
       </c>
-      <c r="AD15" t="inlineStr">
+      <c r="AG15" t="inlineStr">
         <is>
           <t>明</t>
-        </is>
-      </c>
-      <c r="AE15" t="inlineStr"/>
-      <c r="AF15" t="inlineStr"/>
-      <c r="AG15" t="inlineStr">
-        <is>
-          <t>休</t>
         </is>
       </c>
       <c r="AH15" t="inlineStr">
@@ -1832,18 +1836,14 @@
           <t>休</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>休</t>
-        </is>
-      </c>
+      <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
-          <t>F日</t>
+          <t>休</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
@@ -1851,11 +1851,7 @@
           <t>休</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>休</t>
-        </is>
-      </c>
+      <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
       <c r="Q16" t="inlineStr"/>
@@ -1888,7 +1884,7 @@
       <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="inlineStr">
         <is>
-          <t>F日</t>
+          <t>休</t>
         </is>
       </c>
       <c r="AH16" t="inlineStr">
@@ -1923,14 +1919,14 @@
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>休</t>
+        </is>
+      </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>休</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
           <t>休</t>
@@ -1938,7 +1934,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>F日</t>
+          <t>休</t>
         </is>
       </c>
       <c r="N17" t="inlineStr"/>
@@ -1953,17 +1949,13 @@
         </is>
       </c>
       <c r="U17" t="inlineStr"/>
-      <c r="V17" t="inlineStr">
-        <is>
-          <t>休</t>
-        </is>
-      </c>
+      <c r="V17" t="inlineStr"/>
       <c r="W17" t="inlineStr"/>
       <c r="X17" t="inlineStr"/>
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>F日</t>
+          <t>休</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
@@ -1971,15 +1963,15 @@
           <t>休</t>
         </is>
       </c>
-      <c r="AB17" t="inlineStr">
-        <is>
-          <t>休</t>
-        </is>
-      </c>
+      <c r="AB17" t="inlineStr"/>
       <c r="AC17" t="inlineStr"/>
       <c r="AD17" t="inlineStr"/>
       <c r="AE17" t="inlineStr"/>
-      <c r="AF17" t="inlineStr"/>
+      <c r="AF17" t="inlineStr">
+        <is>
+          <t>休</t>
+        </is>
+      </c>
       <c r="AG17" t="inlineStr">
         <is>
           <t>休</t>
@@ -1987,7 +1979,7 @@
       </c>
       <c r="AH17" t="inlineStr">
         <is>
-          <t>休</t>
+          <t>F日</t>
         </is>
       </c>
     </row>
@@ -2038,11 +2030,7 @@
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>休</t>
-        </is>
-      </c>
+      <c r="Q18" t="inlineStr"/>
       <c r="R18" t="inlineStr"/>
       <c r="S18" t="inlineStr"/>
       <c r="T18" t="inlineStr">
@@ -2053,7 +2041,11 @@
       <c r="U18" t="inlineStr"/>
       <c r="V18" t="inlineStr"/>
       <c r="W18" t="inlineStr"/>
-      <c r="X18" t="inlineStr"/>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>休</t>
+        </is>
+      </c>
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr">
         <is>
@@ -2487,42 +2479,34 @@
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
+          <t>A日</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>休</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
           <t>A夜</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="L23" t="inlineStr">
         <is>
           <t>明</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>休</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>休</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>A夜</t>
-        </is>
-      </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>明</t>
+          <t>休</t>
         </is>
       </c>
       <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>休</t>
-        </is>
-      </c>
+      <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr">
         <is>
@@ -2544,22 +2528,22 @@
           <t>他</t>
         </is>
       </c>
-      <c r="U23" t="inlineStr"/>
-      <c r="V23" t="inlineStr"/>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>休</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>休</t>
+        </is>
+      </c>
       <c r="W23" t="inlineStr"/>
-      <c r="X23" t="inlineStr">
-        <is>
-          <t>休</t>
-        </is>
-      </c>
-      <c r="Y23" t="inlineStr">
-        <is>
-          <t>休</t>
-        </is>
-      </c>
+      <c r="X23" t="inlineStr"/>
+      <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>A日</t>
+          <t>休</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
@@ -2608,11 +2592,7 @@
           <t>休</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>休</t>
-        </is>
-      </c>
+      <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr">
@@ -2672,16 +2652,8 @@
       </c>
       <c r="U24" t="inlineStr"/>
       <c r="V24" t="inlineStr"/>
-      <c r="W24" t="inlineStr">
-        <is>
-          <t>M夜</t>
-        </is>
-      </c>
-      <c r="X24" t="inlineStr">
-        <is>
-          <t>明</t>
-        </is>
-      </c>
+      <c r="W24" t="inlineStr"/>
+      <c r="X24" t="inlineStr"/>
       <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr">
         <is>
@@ -2695,16 +2667,20 @@
       </c>
       <c r="AB24" t="inlineStr"/>
       <c r="AC24" t="inlineStr"/>
-      <c r="AD24" t="inlineStr"/>
-      <c r="AE24" t="inlineStr"/>
-      <c r="AF24" t="inlineStr">
+      <c r="AD24" t="inlineStr">
         <is>
           <t>A夜</t>
         </is>
       </c>
+      <c r="AE24" t="inlineStr">
+        <is>
+          <t>明</t>
+        </is>
+      </c>
+      <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="inlineStr">
         <is>
-          <t>明</t>
+          <t>休</t>
         </is>
       </c>
       <c r="AH24" t="inlineStr">
@@ -2735,12 +2711,12 @@
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
-          <t>M夜</t>
+          <t>休</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>明</t>
+          <t>休</t>
         </is>
       </c>
       <c r="H25" t="inlineStr"/>
@@ -2757,24 +2733,36 @@
           <t>休</t>
         </is>
       </c>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>M夜</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>明</t>
+        </is>
+      </c>
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="inlineStr"/>
-      <c r="S25" t="inlineStr">
-        <is>
-          <t>休</t>
-        </is>
-      </c>
+      <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr">
         <is>
           <t>休</t>
         </is>
       </c>
       <c r="U25" t="inlineStr"/>
-      <c r="V25" t="inlineStr"/>
-      <c r="W25" t="inlineStr"/>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>C夜</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>明</t>
+        </is>
+      </c>
       <c r="X25" t="inlineStr"/>
       <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="inlineStr">
@@ -2784,29 +2772,21 @@
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>C夜</t>
-        </is>
-      </c>
-      <c r="AB25" t="inlineStr">
+          <t>休</t>
+        </is>
+      </c>
+      <c r="AB25" t="inlineStr"/>
+      <c r="AC25" t="inlineStr"/>
+      <c r="AD25" t="inlineStr"/>
+      <c r="AE25" t="inlineStr"/>
+      <c r="AF25" t="inlineStr">
+        <is>
+          <t>M夜</t>
+        </is>
+      </c>
+      <c r="AG25" t="inlineStr">
         <is>
           <t>明</t>
-        </is>
-      </c>
-      <c r="AC25" t="inlineStr">
-        <is>
-          <t>休</t>
-        </is>
-      </c>
-      <c r="AD25" t="inlineStr">
-        <is>
-          <t>休</t>
-        </is>
-      </c>
-      <c r="AE25" t="inlineStr"/>
-      <c r="AF25" t="inlineStr"/>
-      <c r="AG25" t="inlineStr">
-        <is>
-          <t>M日</t>
         </is>
       </c>
       <c r="AH25" t="inlineStr">
@@ -2919,18 +2899,14 @@
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
-          <t>A日</t>
+          <t>M日</t>
         </is>
       </c>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>休</t>
-        </is>
-      </c>
+      <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr">
         <is>
           <t>休</t>
@@ -2938,14 +2914,10 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>A夜</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>明</t>
-        </is>
-      </c>
+          <t>休</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr"/>
@@ -2968,22 +2940,26 @@
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>休</t>
-        </is>
-      </c>
-      <c r="AB27" t="inlineStr"/>
-      <c r="AC27" t="inlineStr"/>
-      <c r="AD27" t="inlineStr">
-        <is>
-          <t>休</t>
-        </is>
-      </c>
-      <c r="AE27" t="inlineStr">
-        <is>
-          <t>休</t>
-        </is>
-      </c>
-      <c r="AF27" t="inlineStr"/>
+          <t>M日</t>
+        </is>
+      </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>休</t>
+        </is>
+      </c>
+      <c r="AC27" t="inlineStr">
+        <is>
+          <t>休</t>
+        </is>
+      </c>
+      <c r="AD27" t="inlineStr"/>
+      <c r="AE27" t="inlineStr"/>
+      <c r="AF27" t="inlineStr">
+        <is>
+          <t>休</t>
+        </is>
+      </c>
       <c r="AG27" t="inlineStr">
         <is>
           <t>休</t>
@@ -2991,7 +2967,7 @@
       </c>
       <c r="AH27" t="inlineStr">
         <is>
-          <t>M夜</t>
+          <t>M日</t>
         </is>
       </c>
     </row>
@@ -3108,16 +3084,8 @@
       </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>M夜</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>明</t>
-        </is>
-      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr">
         <is>
@@ -3131,13 +3099,17 @@
       </c>
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr">
-        <is>
-          <t>休</t>
-        </is>
-      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>休</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>休</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr"/>
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr">
         <is>
@@ -3163,19 +3135,15 @@
       <c r="AC29" t="inlineStr"/>
       <c r="AD29" t="inlineStr"/>
       <c r="AE29" t="inlineStr"/>
-      <c r="AF29" t="inlineStr">
-        <is>
-          <t>休</t>
-        </is>
-      </c>
+      <c r="AF29" t="inlineStr"/>
       <c r="AG29" t="inlineStr">
         <is>
-          <t>休</t>
+          <t>M日</t>
         </is>
       </c>
       <c r="AH29" t="inlineStr">
         <is>
-          <t>A日</t>
+          <t>休</t>
         </is>
       </c>
     </row>
@@ -3206,17 +3174,17 @@
       </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>A夜</t>
-        </is>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr">
         <is>
+          <t>M夜</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
           <t>明</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr">
         <is>
           <t>休</t>
@@ -3230,8 +3198,16 @@
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr"/>
       <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>休</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>休</t>
+        </is>
+      </c>
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr">
         <is>
@@ -3242,11 +3218,7 @@
       <c r="V30" t="inlineStr"/>
       <c r="W30" t="inlineStr"/>
       <c r="X30" t="inlineStr"/>
-      <c r="Y30" t="inlineStr">
-        <is>
-          <t>休</t>
-        </is>
-      </c>
+      <c r="Y30" t="inlineStr"/>
       <c r="Z30" t="inlineStr">
         <is>
           <t>休</t>
@@ -3254,7 +3226,7 @@
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>A日</t>
+          <t>休</t>
         </is>
       </c>
       <c r="AB30" t="inlineStr"/>
@@ -3264,12 +3236,12 @@
       <c r="AF30" t="inlineStr"/>
       <c r="AG30" t="inlineStr">
         <is>
-          <t>休</t>
+          <t>A夜</t>
         </is>
       </c>
       <c r="AH30" t="inlineStr">
         <is>
-          <t>休</t>
+          <t>明</t>
         </is>
       </c>
     </row>
@@ -3292,14 +3264,22 @@
           <t>CT</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>A夜</t>
+        </is>
+      </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>休</t>
+          <t>明</t>
         </is>
       </c>
       <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>休</t>
+        </is>
+      </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr">
         <is>
@@ -3358,17 +3338,13 @@
       </c>
       <c r="U31" t="inlineStr"/>
       <c r="V31" t="inlineStr"/>
-      <c r="W31" t="inlineStr">
-        <is>
-          <t>A夜</t>
-        </is>
-      </c>
-      <c r="X31" t="inlineStr">
-        <is>
-          <t>明</t>
-        </is>
-      </c>
-      <c r="Y31" t="inlineStr"/>
+      <c r="W31" t="inlineStr"/>
+      <c r="X31" t="inlineStr"/>
+      <c r="Y31" t="inlineStr">
+        <is>
+          <t>休</t>
+        </is>
+      </c>
       <c r="Z31" t="inlineStr">
         <is>
           <t>休</t>
@@ -3376,20 +3352,12 @@
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>休</t>
+          <t>A日</t>
         </is>
       </c>
       <c r="AB31" t="inlineStr"/>
-      <c r="AC31" t="inlineStr">
-        <is>
-          <t>A夜</t>
-        </is>
-      </c>
-      <c r="AD31" t="inlineStr">
-        <is>
-          <t>明</t>
-        </is>
-      </c>
+      <c r="AC31" t="inlineStr"/>
+      <c r="AD31" t="inlineStr"/>
       <c r="AE31" t="inlineStr"/>
       <c r="AF31" t="inlineStr"/>
       <c r="AG31" t="inlineStr">
@@ -3499,28 +3467,36 @@
           <t>XA</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>休</t>
+        </is>
+      </c>
       <c r="F33" t="inlineStr">
         <is>
           <t>休</t>
         </is>
       </c>
       <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr">
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>休</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>休</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
         <is>
           <t>M夜</t>
         </is>
       </c>
-      <c r="I33" t="inlineStr">
+      <c r="L33" t="inlineStr">
         <is>
           <t>明</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>休</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
@@ -3531,58 +3507,50 @@
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
       <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr">
-        <is>
-          <t>A夜</t>
-        </is>
-      </c>
+      <c r="Q33" t="inlineStr"/>
       <c r="R33" t="inlineStr">
         <is>
+          <t>M夜</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
           <t>明</t>
         </is>
       </c>
-      <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr">
         <is>
           <t>休</t>
         </is>
       </c>
-      <c r="U33" t="inlineStr">
-        <is>
-          <t>休</t>
-        </is>
-      </c>
+      <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr"/>
       <c r="W33" t="inlineStr"/>
       <c r="X33" t="inlineStr"/>
       <c r="Y33" t="inlineStr"/>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>休</t>
+          <t>A夜</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>休</t>
+          <t>明</t>
         </is>
       </c>
       <c r="AB33" t="inlineStr"/>
       <c r="AC33" t="inlineStr"/>
       <c r="AD33" t="inlineStr"/>
-      <c r="AE33" t="inlineStr">
-        <is>
-          <t>休</t>
-        </is>
-      </c>
+      <c r="AE33" t="inlineStr"/>
       <c r="AF33" t="inlineStr"/>
       <c r="AG33" t="inlineStr">
         <is>
-          <t>M夜</t>
+          <t>休</t>
         </is>
       </c>
       <c r="AH33" t="inlineStr">
         <is>
-          <t>明</t>
+          <t>休</t>
         </is>
       </c>
     </row>
@@ -3612,17 +3580,17 @@
         </is>
       </c>
       <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>休</t>
+        </is>
+      </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>A夜</t>
-        </is>
-      </c>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr">
         <is>
-          <t>明</t>
+          <t>A日</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
@@ -3630,19 +3598,15 @@
           <t>休</t>
         </is>
       </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>休</t>
+        </is>
+      </c>
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr">
-        <is>
-          <t>休</t>
-        </is>
-      </c>
-      <c r="R34" t="inlineStr">
-        <is>
-          <t>休</t>
-        </is>
-      </c>
+      <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr"/>
       <c r="S34" t="inlineStr">
         <is>
           <t>A夜</t>
@@ -3671,8 +3635,16 @@
       <c r="AB34" t="inlineStr"/>
       <c r="AC34" t="inlineStr"/>
       <c r="AD34" t="inlineStr"/>
-      <c r="AE34" t="inlineStr"/>
-      <c r="AF34" t="inlineStr"/>
+      <c r="AE34" t="inlineStr">
+        <is>
+          <t>A夜</t>
+        </is>
+      </c>
+      <c r="AF34" t="inlineStr">
+        <is>
+          <t>明</t>
+        </is>
+      </c>
       <c r="AG34" t="inlineStr">
         <is>
           <t>休</t>
@@ -3783,21 +3755,17 @@
           <t>明</t>
         </is>
       </c>
-      <c r="AC35" t="inlineStr"/>
-      <c r="AD35" t="inlineStr">
-        <is>
-          <t>休</t>
-        </is>
-      </c>
-      <c r="AE35" t="inlineStr">
-        <is>
-          <t>休</t>
-        </is>
-      </c>
+      <c r="AC35" t="inlineStr">
+        <is>
+          <t>休</t>
+        </is>
+      </c>
+      <c r="AD35" t="inlineStr"/>
+      <c r="AE35" t="inlineStr"/>
       <c r="AF35" t="inlineStr"/>
       <c r="AG35" t="inlineStr">
         <is>
-          <t>A日</t>
+          <t>休</t>
         </is>
       </c>
       <c r="AH35" t="inlineStr">
@@ -4043,20 +4011,12 @@
         </is>
       </c>
       <c r="N38" t="inlineStr"/>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>休</t>
-        </is>
-      </c>
-      <c r="P38" t="inlineStr">
-        <is>
-          <t>休</t>
-        </is>
-      </c>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr">
         <is>
-          <t>C夜</t>
+          <t>A夜</t>
         </is>
       </c>
       <c r="S38" t="inlineStr">
@@ -4076,17 +4036,25 @@
       <c r="Y38" t="inlineStr"/>
       <c r="Z38" t="inlineStr">
         <is>
+          <t>休</t>
+        </is>
+      </c>
+      <c r="AA38" t="inlineStr">
+        <is>
+          <t>休</t>
+        </is>
+      </c>
+      <c r="AB38" t="inlineStr"/>
+      <c r="AC38" t="inlineStr">
+        <is>
           <t>A夜</t>
         </is>
       </c>
-      <c r="AA38" t="inlineStr">
+      <c r="AD38" t="inlineStr">
         <is>
           <t>明</t>
         </is>
       </c>
-      <c r="AB38" t="inlineStr"/>
-      <c r="AC38" t="inlineStr"/>
-      <c r="AD38" t="inlineStr"/>
       <c r="AE38" t="inlineStr"/>
       <c r="AF38" t="inlineStr"/>
       <c r="AG38" t="inlineStr">
@@ -4221,24 +4189,16 @@
           <t>HT</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>A夜</t>
-        </is>
-      </c>
+      <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
-          <t>明</t>
+          <t>休</t>
         </is>
       </c>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>休</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr">
         <is>
@@ -4254,24 +4214,24 @@
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr">
-        <is>
-          <t>A夜</t>
-        </is>
-      </c>
+      <c r="R40" t="inlineStr"/>
       <c r="S40" t="inlineStr">
         <is>
+          <t>C夜</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
           <t>明</t>
-        </is>
-      </c>
-      <c r="T40" t="inlineStr">
-        <is>
-          <t>休</t>
         </is>
       </c>
       <c r="U40" t="inlineStr"/>
       <c r="V40" t="inlineStr"/>
-      <c r="W40" t="inlineStr"/>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>休</t>
+        </is>
+      </c>
       <c r="X40" t="inlineStr">
         <is>
           <t>A夜</t>
@@ -4432,21 +4392,13 @@
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
         <is>
-          <t>M日</t>
+          <t>休</t>
         </is>
       </c>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>休</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>休</t>
-        </is>
-      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr">
         <is>
@@ -4461,8 +4413,16 @@
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>M夜</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>明</t>
+        </is>
+      </c>
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr">
         <is>
@@ -4470,40 +4430,44 @@
         </is>
       </c>
       <c r="U42" t="inlineStr"/>
-      <c r="V42" t="inlineStr"/>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>M夜</t>
+        </is>
+      </c>
       <c r="W42" t="inlineStr">
         <is>
-          <t>休</t>
-        </is>
-      </c>
-      <c r="X42" t="inlineStr">
-        <is>
-          <t>休</t>
-        </is>
-      </c>
+          <t>明</t>
+        </is>
+      </c>
+      <c r="X42" t="inlineStr"/>
       <c r="Y42" t="inlineStr"/>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>M夜</t>
+          <t>休</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
         <is>
-          <t>明</t>
+          <t>休</t>
         </is>
       </c>
       <c r="AB42" t="inlineStr"/>
       <c r="AC42" t="inlineStr"/>
-      <c r="AD42" t="inlineStr"/>
-      <c r="AE42" t="inlineStr"/>
-      <c r="AF42" t="inlineStr">
+      <c r="AD42" t="inlineStr">
         <is>
           <t>M夜</t>
         </is>
       </c>
+      <c r="AE42" t="inlineStr">
+        <is>
+          <t>明</t>
+        </is>
+      </c>
+      <c r="AF42" t="inlineStr"/>
       <c r="AG42" t="inlineStr">
         <is>
-          <t>明</t>
+          <t>休</t>
         </is>
       </c>
       <c r="AH42" t="inlineStr">
@@ -4549,23 +4513,23 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>休</t>
-        </is>
-      </c>
-      <c r="N43" t="inlineStr"/>
+          <t>A夜</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>明</t>
+        </is>
+      </c>
       <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr">
-        <is>
-          <t>A夜</t>
-        </is>
-      </c>
-      <c r="Q43" t="inlineStr">
-        <is>
-          <t>明</t>
-        </is>
-      </c>
+      <c r="P43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr"/>
       <c r="R43" t="inlineStr"/>
-      <c r="S43" t="inlineStr"/>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>休</t>
+        </is>
+      </c>
       <c r="T43" t="inlineStr">
         <is>
           <t>休</t>
@@ -4649,11 +4613,7 @@
           <t>XA</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>休</t>
-        </is>
-      </c>
+      <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
           <t>休</t>
@@ -4675,19 +4635,23 @@
         </is>
       </c>
       <c r="N44" t="inlineStr"/>
-      <c r="O44" t="inlineStr">
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr">
         <is>
           <t>A夜</t>
         </is>
       </c>
-      <c r="P44" t="inlineStr">
+      <c r="R44" t="inlineStr">
         <is>
           <t>明</t>
         </is>
       </c>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="inlineStr"/>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>休</t>
+        </is>
+      </c>
       <c r="T44" t="inlineStr">
         <is>
           <t>休</t>
@@ -4714,17 +4678,13 @@
       </c>
       <c r="AB44" t="inlineStr"/>
       <c r="AC44" t="inlineStr"/>
-      <c r="AD44" t="inlineStr">
-        <is>
-          <t>A夜</t>
-        </is>
-      </c>
-      <c r="AE44" t="inlineStr">
-        <is>
-          <t>明</t>
-        </is>
-      </c>
-      <c r="AF44" t="inlineStr"/>
+      <c r="AD44" t="inlineStr"/>
+      <c r="AE44" t="inlineStr"/>
+      <c r="AF44" t="inlineStr">
+        <is>
+          <t>休</t>
+        </is>
+      </c>
       <c r="AG44" t="inlineStr">
         <is>
           <t>休</t>
@@ -4732,7 +4692,7 @@
       </c>
       <c r="AH44" t="inlineStr">
         <is>
-          <t>休</t>
+          <t>A日</t>
         </is>
       </c>
     </row>
@@ -4755,7 +4715,11 @@
           <t>MR</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr"/>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>休</t>
+        </is>
+      </c>
       <c r="F45" t="inlineStr">
         <is>
           <t>休</t>
@@ -4764,38 +4728,34 @@
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr">
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>C夜</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>明</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>休</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr">
         <is>
           <t>M夜</t>
         </is>
       </c>
-      <c r="K45" t="inlineStr">
+      <c r="Q45" t="inlineStr">
         <is>
           <t>明</t>
         </is>
       </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>休</t>
-        </is>
-      </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>休</t>
-        </is>
-      </c>
-      <c r="N45" t="inlineStr"/>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>M夜</t>
-        </is>
-      </c>
-      <c r="P45" t="inlineStr">
-        <is>
-          <t>明</t>
-        </is>
-      </c>
-      <c r="Q45" t="inlineStr"/>
       <c r="R45" t="inlineStr"/>
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr">
@@ -4985,16 +4945,8 @@
         </is>
       </c>
       <c r="N47" t="inlineStr"/>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>休</t>
-        </is>
-      </c>
-      <c r="P47" t="inlineStr">
-        <is>
-          <t>休</t>
-        </is>
-      </c>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr"/>
       <c r="R47" t="inlineStr"/>
       <c r="S47" t="inlineStr">
@@ -5020,17 +4972,25 @@
       </c>
       <c r="AB47" t="inlineStr"/>
       <c r="AC47" t="inlineStr"/>
-      <c r="AD47" t="inlineStr"/>
-      <c r="AE47" t="inlineStr"/>
+      <c r="AD47" t="inlineStr">
+        <is>
+          <t>休</t>
+        </is>
+      </c>
+      <c r="AE47" t="inlineStr">
+        <is>
+          <t>休</t>
+        </is>
+      </c>
       <c r="AF47" t="inlineStr"/>
       <c r="AG47" t="inlineStr">
         <is>
-          <t>休</t>
+          <t>F日</t>
         </is>
       </c>
       <c r="AH47" t="inlineStr">
         <is>
-          <t>F日</t>
+          <t>休</t>
         </is>
       </c>
     </row>
@@ -5060,8 +5020,16 @@
         </is>
       </c>
       <c r="G48" t="inlineStr"/>
-      <c r="H48" t="inlineStr"/>
-      <c r="I48" t="inlineStr"/>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>A夜</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>明</t>
+        </is>
+      </c>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr">
@@ -5074,18 +5042,18 @@
           <t>休</t>
         </is>
       </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>M夜</t>
-        </is>
-      </c>
-      <c r="O48" t="inlineStr">
+      <c r="N48" t="inlineStr"/>
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>A夜</t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr">
         <is>
           <t>明</t>
         </is>
       </c>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
       <c r="R48" t="inlineStr"/>
       <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr">
@@ -5097,22 +5065,22 @@
       <c r="V48" t="inlineStr"/>
       <c r="W48" t="inlineStr"/>
       <c r="X48" t="inlineStr"/>
-      <c r="Y48" t="inlineStr">
-        <is>
-          <t>休</t>
-        </is>
-      </c>
+      <c r="Y48" t="inlineStr"/>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>休</t>
+          <t>A日</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
         <is>
-          <t>F日</t>
-        </is>
-      </c>
-      <c r="AB48" t="inlineStr"/>
+          <t>休</t>
+        </is>
+      </c>
+      <c r="AB48" t="inlineStr">
+        <is>
+          <t>休</t>
+        </is>
+      </c>
       <c r="AC48" t="inlineStr"/>
       <c r="AD48" t="inlineStr"/>
       <c r="AE48" t="inlineStr"/>
@@ -5157,7 +5125,7 @@
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
         <is>
-          <t>C夜</t>
+          <t>M夜</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -5177,17 +5145,17 @@
         </is>
       </c>
       <c r="N49" t="inlineStr"/>
-      <c r="O49" t="inlineStr"/>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>M夜</t>
+        </is>
+      </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>M夜</t>
-        </is>
-      </c>
-      <c r="Q49" t="inlineStr">
-        <is>
           <t>明</t>
         </is>
       </c>
+      <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr"/>
       <c r="S49" t="inlineStr"/>
       <c r="T49" t="inlineStr">
@@ -5273,40 +5241,48 @@
           <t>MR</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>休</t>
-        </is>
-      </c>
+      <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr">
         <is>
-          <t>休</t>
+          <t>M夜</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>A夜</t>
+          <t>明</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
+          <t>休</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>休</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>休</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>休</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>C夜</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
           <t>明</t>
         </is>
       </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>休</t>
-        </is>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>A日</t>
-        </is>
-      </c>
-      <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr"/>
@@ -5317,16 +5293,8 @@
           <t>休</t>
         </is>
       </c>
-      <c r="U50" t="inlineStr">
-        <is>
-          <t>M夜</t>
-        </is>
-      </c>
-      <c r="V50" t="inlineStr">
-        <is>
-          <t>明</t>
-        </is>
-      </c>
+      <c r="U50" t="inlineStr"/>
+      <c r="V50" t="inlineStr"/>
       <c r="W50" t="inlineStr"/>
       <c r="X50" t="inlineStr"/>
       <c r="Y50" t="inlineStr"/>
@@ -5347,7 +5315,7 @@
       <c r="AF50" t="inlineStr"/>
       <c r="AG50" t="inlineStr">
         <is>
-          <t>休</t>
+          <t>A日</t>
         </is>
       </c>
       <c r="AH50" t="inlineStr">
@@ -5388,12 +5356,12 @@
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr">
         <is>
-          <t>休</t>
+          <t>M日</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>M日</t>
+          <t>休</t>
         </is>
       </c>
       <c r="N51" t="inlineStr"/>
@@ -5419,21 +5387,21 @@
       <c r="Z51" t="inlineStr"/>
       <c r="AA51" t="inlineStr">
         <is>
-          <t>M日</t>
-        </is>
-      </c>
-      <c r="AB51" t="inlineStr">
-        <is>
-          <t>休</t>
-        </is>
-      </c>
-      <c r="AC51" t="inlineStr">
-        <is>
-          <t>休</t>
-        </is>
-      </c>
-      <c r="AD51" t="inlineStr"/>
-      <c r="AE51" t="inlineStr"/>
+          <t>C日</t>
+        </is>
+      </c>
+      <c r="AB51" t="inlineStr"/>
+      <c r="AC51" t="inlineStr"/>
+      <c r="AD51" t="inlineStr">
+        <is>
+          <t>休</t>
+        </is>
+      </c>
+      <c r="AE51" t="inlineStr">
+        <is>
+          <t>休</t>
+        </is>
+      </c>
       <c r="AF51" t="inlineStr"/>
       <c r="AG51" t="inlineStr">
         <is>
@@ -5468,58 +5436,58 @@
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr">
         <is>
-          <t>休</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr"/>
+          <t>A夜</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>明</t>
+        </is>
+      </c>
       <c r="H52" t="inlineStr"/>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>休</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>休</t>
-        </is>
-      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr">
         <is>
+          <t>休</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
           <t>A日</t>
         </is>
       </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>休</t>
-        </is>
-      </c>
-      <c r="N52" t="inlineStr">
-        <is>
-          <t>休</t>
-        </is>
-      </c>
+      <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>休</t>
+        </is>
+      </c>
       <c r="R52" t="inlineStr">
         <is>
           <t>休</t>
         </is>
       </c>
-      <c r="S52" t="inlineStr">
-        <is>
-          <t>C夜</t>
-        </is>
-      </c>
+      <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr">
         <is>
+          <t>休</t>
+        </is>
+      </c>
+      <c r="U52" t="inlineStr"/>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>A夜</t>
+        </is>
+      </c>
+      <c r="W52" t="inlineStr">
+        <is>
           <t>明</t>
         </is>
       </c>
-      <c r="U52" t="inlineStr"/>
-      <c r="V52" t="inlineStr"/>
-      <c r="W52" t="inlineStr"/>
       <c r="X52" t="inlineStr"/>
       <c r="Y52" t="inlineStr"/>
       <c r="Z52" t="inlineStr">
@@ -5539,12 +5507,12 @@
       <c r="AF52" t="inlineStr"/>
       <c r="AG52" t="inlineStr">
         <is>
-          <t>A夜</t>
+          <t>休</t>
         </is>
       </c>
       <c r="AH52" t="inlineStr">
         <is>
-          <t>明</t>
+          <t>休</t>
         </is>
       </c>
     </row>
@@ -5570,7 +5538,7 @@
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr">
         <is>
-          <t>F日</t>
+          <t>休</t>
         </is>
       </c>
       <c r="G53" t="inlineStr"/>
@@ -5590,16 +5558,8 @@
       </c>
       <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr">
-        <is>
-          <t>休</t>
-        </is>
-      </c>
-      <c r="Q53" t="inlineStr">
-        <is>
-          <t>休</t>
-        </is>
-      </c>
+      <c r="P53" t="inlineStr"/>
+      <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr"/>
       <c r="S53" t="inlineStr">
         <is>
@@ -5619,11 +5579,15 @@
           <t>休</t>
         </is>
       </c>
-      <c r="Y53" t="inlineStr"/>
+      <c r="Y53" t="inlineStr">
+        <is>
+          <t>休</t>
+        </is>
+      </c>
       <c r="Z53" t="inlineStr"/>
       <c r="AA53" t="inlineStr">
         <is>
-          <t>C日</t>
+          <t>F日</t>
         </is>
       </c>
       <c r="AB53" t="inlineStr"/>
@@ -5633,12 +5597,12 @@
       <c r="AF53" t="inlineStr"/>
       <c r="AG53" t="inlineStr">
         <is>
+          <t>休</t>
+        </is>
+      </c>
+      <c r="AH53" t="inlineStr">
+        <is>
           <t>C日</t>
-        </is>
-      </c>
-      <c r="AH53" t="inlineStr">
-        <is>
-          <t>休</t>
         </is>
       </c>
     </row>
@@ -5667,10 +5631,22 @@
           <t>休</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr"/>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>休</t>
+        </is>
+      </c>
       <c r="H54" t="inlineStr"/>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>A夜</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>明</t>
+        </is>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr">
         <is>
@@ -5690,21 +5666,21 @@
       <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr">
         <is>
-          <t>A夜</t>
-        </is>
-      </c>
-      <c r="U54" t="inlineStr">
-        <is>
-          <t>明</t>
-        </is>
-      </c>
+          <t>休</t>
+        </is>
+      </c>
+      <c r="U54" t="inlineStr"/>
       <c r="V54" t="inlineStr"/>
       <c r="W54" t="inlineStr">
         <is>
-          <t>休</t>
-        </is>
-      </c>
-      <c r="X54" t="inlineStr"/>
+          <t>A夜</t>
+        </is>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>明</t>
+        </is>
+      </c>
       <c r="Y54" t="inlineStr"/>
       <c r="Z54" t="inlineStr">
         <is>
@@ -5719,19 +5695,15 @@
       <c r="AB54" t="inlineStr"/>
       <c r="AC54" t="inlineStr"/>
       <c r="AD54" t="inlineStr"/>
-      <c r="AE54" t="inlineStr">
+      <c r="AE54" t="inlineStr"/>
+      <c r="AF54" t="inlineStr">
         <is>
           <t>A夜</t>
         </is>
       </c>
-      <c r="AF54" t="inlineStr">
+      <c r="AG54" t="inlineStr">
         <is>
           <t>明</t>
-        </is>
-      </c>
-      <c r="AG54" t="inlineStr">
-        <is>
-          <t>休</t>
         </is>
       </c>
       <c r="AH54" t="inlineStr">
@@ -5759,28 +5731,24 @@
           <t>MR</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr"/>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>休</t>
+        </is>
+      </c>
       <c r="F55" t="inlineStr">
         <is>
           <t>休</t>
         </is>
       </c>
       <c r="G55" t="inlineStr"/>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>休</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>休</t>
-        </is>
-      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr">
         <is>
-          <t>M日</t>
+          <t>休</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
@@ -5796,21 +5764,25 @@
       <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr">
         <is>
+          <t>休</t>
+        </is>
+      </c>
+      <c r="U55" t="inlineStr">
+        <is>
           <t>M夜</t>
         </is>
       </c>
-      <c r="U55" t="inlineStr">
+      <c r="V55" t="inlineStr">
         <is>
           <t>明</t>
         </is>
       </c>
-      <c r="V55" t="inlineStr"/>
       <c r="W55" t="inlineStr"/>
       <c r="X55" t="inlineStr"/>
       <c r="Y55" t="inlineStr"/>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>休</t>
+          <t>F日</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
@@ -5819,16 +5791,8 @@
         </is>
       </c>
       <c r="AB55" t="inlineStr"/>
-      <c r="AC55" t="inlineStr">
-        <is>
-          <t>M夜</t>
-        </is>
-      </c>
-      <c r="AD55" t="inlineStr">
-        <is>
-          <t>明</t>
-        </is>
-      </c>
+      <c r="AC55" t="inlineStr"/>
+      <c r="AD55" t="inlineStr"/>
       <c r="AE55" t="inlineStr"/>
       <c r="AF55" t="inlineStr"/>
       <c r="AG55" t="inlineStr">
@@ -5868,57 +5832,53 @@
         </is>
       </c>
       <c r="G56" t="inlineStr"/>
-      <c r="H56" t="inlineStr"/>
-      <c r="I56" t="inlineStr"/>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>C夜</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>明</t>
+        </is>
+      </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>C夜</t>
-        </is>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr">
         <is>
-          <t>明</t>
+          <t>休</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>休</t>
-        </is>
-      </c>
-      <c r="N56" t="inlineStr">
-        <is>
-          <t>休</t>
-        </is>
-      </c>
+          <t>C日</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr">
-        <is>
-          <t>C夜</t>
-        </is>
-      </c>
+      <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr">
         <is>
-          <t>明</t>
-        </is>
-      </c>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="inlineStr">
-        <is>
-          <t>休</t>
-        </is>
-      </c>
+          <t>休</t>
+        </is>
+      </c>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>休</t>
+        </is>
+      </c>
+      <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr">
         <is>
           <t>休</t>
         </is>
       </c>
-      <c r="U56" t="inlineStr"/>
-      <c r="V56" t="inlineStr">
-        <is>
-          <t>休</t>
-        </is>
-      </c>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>休</t>
+        </is>
+      </c>
+      <c r="V56" t="inlineStr"/>
       <c r="W56" t="inlineStr"/>
       <c r="X56" t="inlineStr">
         <is>
@@ -5975,10 +5935,14 @@
           <t>NM</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr"/>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>M夜</t>
+        </is>
+      </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>休</t>
+          <t>明</t>
         </is>
       </c>
       <c r="G57" t="inlineStr"/>
@@ -6030,19 +5994,15 @@
           <t>休</t>
         </is>
       </c>
-      <c r="AB57" t="inlineStr"/>
+      <c r="AB57" t="inlineStr">
+        <is>
+          <t>休</t>
+        </is>
+      </c>
       <c r="AC57" t="inlineStr"/>
       <c r="AD57" t="inlineStr"/>
-      <c r="AE57" t="inlineStr">
-        <is>
-          <t>M夜</t>
-        </is>
-      </c>
-      <c r="AF57" t="inlineStr">
-        <is>
-          <t>明</t>
-        </is>
-      </c>
+      <c r="AE57" t="inlineStr"/>
+      <c r="AF57" t="inlineStr"/>
       <c r="AG57" t="inlineStr">
         <is>
           <t>休</t>
@@ -6086,19 +6046,23 @@
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr">
         <is>
-          <t>休</t>
+          <t>M夜</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>休</t>
+          <t>明</t>
         </is>
       </c>
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>休</t>
+        </is>
+      </c>
       <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr">
         <is>
@@ -6125,15 +6089,19 @@
       </c>
       <c r="AA58" t="inlineStr">
         <is>
+          <t>休</t>
+        </is>
+      </c>
+      <c r="AB58" t="inlineStr">
+        <is>
           <t>M夜</t>
         </is>
       </c>
-      <c r="AB58" t="inlineStr">
+      <c r="AC58" t="inlineStr">
         <is>
           <t>明</t>
         </is>
       </c>
-      <c r="AC58" t="inlineStr"/>
       <c r="AD58" t="inlineStr"/>
       <c r="AE58" t="inlineStr"/>
       <c r="AF58" t="inlineStr"/>
@@ -6167,14 +6135,10 @@
           <t>MR</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>休</t>
-        </is>
-      </c>
+      <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr">
         <is>
-          <t>休</t>
+          <t>C日</t>
         </is>
       </c>
       <c r="G59" t="inlineStr"/>
@@ -6184,7 +6148,7 @@
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr">
         <is>
-          <t>C日</t>
+          <t>休</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
@@ -6193,8 +6157,16 @@
         </is>
       </c>
       <c r="N59" t="inlineStr"/>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>C夜</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>明</t>
+        </is>
+      </c>
       <c r="Q59" t="inlineStr"/>
       <c r="R59" t="inlineStr"/>
       <c r="S59" t="inlineStr"/>
@@ -6249,7 +6221,11 @@
         </is>
       </c>
       <c r="AD59" t="inlineStr"/>
-      <c r="AE59" t="inlineStr"/>
+      <c r="AE59" t="inlineStr">
+        <is>
+          <t>休</t>
+        </is>
+      </c>
       <c r="AF59" t="inlineStr"/>
       <c r="AG59" t="inlineStr">
         <is>
@@ -6310,21 +6286,21 @@
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr">
         <is>
-          <t>休</t>
-        </is>
-      </c>
-      <c r="U60" t="inlineStr">
-        <is>
-          <t>休</t>
-        </is>
-      </c>
+          <t>C日</t>
+        </is>
+      </c>
+      <c r="U60" t="inlineStr"/>
       <c r="V60" t="inlineStr"/>
       <c r="W60" t="inlineStr"/>
-      <c r="X60" t="inlineStr"/>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>休</t>
+        </is>
+      </c>
       <c r="Y60" t="inlineStr"/>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>C日</t>
+          <t>休</t>
         </is>
       </c>
       <c r="AA60" t="inlineStr">
@@ -6332,22 +6308,22 @@
           <t>休</t>
         </is>
       </c>
-      <c r="AB60" t="inlineStr">
-        <is>
-          <t>休</t>
-        </is>
-      </c>
+      <c r="AB60" t="inlineStr"/>
       <c r="AC60" t="inlineStr"/>
       <c r="AD60" t="inlineStr"/>
-      <c r="AE60" t="inlineStr"/>
+      <c r="AE60" t="inlineStr">
+        <is>
+          <t>C夜</t>
+        </is>
+      </c>
       <c r="AF60" t="inlineStr">
         <is>
-          <t>C夜</t>
+          <t>明</t>
         </is>
       </c>
       <c r="AG60" t="inlineStr">
         <is>
-          <t>明</t>
+          <t>休</t>
         </is>
       </c>
       <c r="AH60" t="inlineStr">
@@ -6381,17 +6357,17 @@
           <t>休</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr"/>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>A夜</t>
+        </is>
+      </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>A夜</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
           <t>明</t>
         </is>
       </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr">
@@ -6405,8 +6381,16 @@
         </is>
       </c>
       <c r="N61" t="inlineStr"/>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>A夜</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>明</t>
+        </is>
+      </c>
       <c r="Q61" t="inlineStr"/>
       <c r="R61" t="inlineStr"/>
       <c r="S61" t="inlineStr"/>
@@ -6493,70 +6477,66 @@
           <t>XP</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>休</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr">
         <is>
           <t>M夜</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>明</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>休</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>休</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr">
         <is>
-          <t>C夜</t>
+          <t>休</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>明</t>
+          <t>休</t>
         </is>
       </c>
       <c r="N62" t="inlineStr"/>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>休</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>休</t>
+        </is>
+      </c>
       <c r="Q62" t="inlineStr"/>
       <c r="R62" t="inlineStr"/>
       <c r="S62" t="inlineStr"/>
       <c r="T62" t="inlineStr">
         <is>
-          <t>休</t>
-        </is>
-      </c>
-      <c r="U62" t="inlineStr"/>
-      <c r="V62" t="inlineStr">
-        <is>
           <t>M夜</t>
         </is>
       </c>
-      <c r="W62" t="inlineStr">
+      <c r="U62" t="inlineStr">
         <is>
           <t>明</t>
         </is>
       </c>
-      <c r="X62" t="inlineStr">
-        <is>
-          <t>休</t>
-        </is>
-      </c>
+      <c r="V62" t="inlineStr"/>
+      <c r="W62" t="inlineStr"/>
+      <c r="X62" t="inlineStr"/>
       <c r="Y62" t="inlineStr"/>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>休</t>
+          <t>M日</t>
         </is>
       </c>
       <c r="AA62" t="inlineStr">
@@ -6695,15 +6675,15 @@
           <t>休</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>休</t>
-        </is>
-      </c>
+      <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>休</t>
+        </is>
+      </c>
       <c r="L64" t="inlineStr">
         <is>
           <t>休</t>
@@ -6711,26 +6691,30 @@
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>休</t>
-        </is>
-      </c>
-      <c r="N64" t="inlineStr"/>
-      <c r="O64" t="inlineStr"/>
+          <t>M日</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>休</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>休</t>
+        </is>
+      </c>
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr">
+      <c r="R64" t="inlineStr"/>
+      <c r="S64" t="inlineStr">
         <is>
           <t>M夜</t>
         </is>
       </c>
-      <c r="S64" t="inlineStr">
+      <c r="T64" t="inlineStr">
         <is>
           <t>明</t>
-        </is>
-      </c>
-      <c r="T64" t="inlineStr">
-        <is>
-          <t>休</t>
         </is>
       </c>
       <c r="U64" t="inlineStr"/>
@@ -6740,7 +6724,7 @@
       <c r="Y64" t="inlineStr"/>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>M日</t>
+          <t>休</t>
         </is>
       </c>
       <c r="AA64" t="inlineStr">
@@ -6760,7 +6744,7 @@
       </c>
       <c r="AH64" t="inlineStr">
         <is>
-          <t>休</t>
+          <t>M夜</t>
         </is>
       </c>
     </row>
@@ -6823,17 +6807,17 @@
           <t>休</t>
         </is>
       </c>
-      <c r="U65" t="inlineStr">
-        <is>
-          <t>C夜</t>
-        </is>
-      </c>
+      <c r="U65" t="inlineStr"/>
       <c r="V65" t="inlineStr">
         <is>
-          <t>明</t>
-        </is>
-      </c>
-      <c r="W65" t="inlineStr"/>
+          <t>休</t>
+        </is>
+      </c>
+      <c r="W65" t="inlineStr">
+        <is>
+          <t>休</t>
+        </is>
+      </c>
       <c r="X65" t="inlineStr"/>
       <c r="Y65" t="inlineStr"/>
       <c r="Z65" t="inlineStr">
@@ -6853,12 +6837,12 @@
       <c r="AF65" t="inlineStr"/>
       <c r="AG65" t="inlineStr">
         <is>
-          <t>休</t>
+          <t>C夜</t>
         </is>
       </c>
       <c r="AH65" t="inlineStr">
         <is>
-          <t>休</t>
+          <t>明</t>
         </is>
       </c>
     </row>
@@ -6911,18 +6895,18 @@
         </is>
       </c>
       <c r="N66" t="inlineStr"/>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr">
-        <is>
-          <t>M夜</t>
-        </is>
-      </c>
-      <c r="R66" t="inlineStr">
-        <is>
-          <t>明</t>
-        </is>
-      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>休</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>休</t>
+        </is>
+      </c>
+      <c r="Q66" t="inlineStr"/>
+      <c r="R66" t="inlineStr"/>
       <c r="S66" t="inlineStr"/>
       <c r="T66" t="inlineStr">
         <is>
@@ -6936,27 +6920,27 @@
       <c r="Y66" t="inlineStr"/>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>休</t>
+          <t>M夜</t>
         </is>
       </c>
       <c r="AA66" t="inlineStr">
         <is>
-          <t>休</t>
-        </is>
-      </c>
-      <c r="AB66" t="inlineStr">
+          <t>明</t>
+        </is>
+      </c>
+      <c r="AB66" t="inlineStr"/>
+      <c r="AC66" t="inlineStr"/>
+      <c r="AD66" t="inlineStr"/>
+      <c r="AE66" t="inlineStr">
         <is>
           <t>M夜</t>
         </is>
       </c>
-      <c r="AC66" t="inlineStr">
+      <c r="AF66" t="inlineStr">
         <is>
           <t>明</t>
         </is>
       </c>
-      <c r="AD66" t="inlineStr"/>
-      <c r="AE66" t="inlineStr"/>
-      <c r="AF66" t="inlineStr"/>
       <c r="AG66" t="inlineStr">
         <is>
           <t>休</t>
@@ -7000,7 +6984,7 @@
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr">
         <is>
-          <t>休</t>
+          <t>C日</t>
         </is>
       </c>
       <c r="M67" t="inlineStr">
@@ -7008,7 +6992,11 @@
           <t>休</t>
         </is>
       </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>休</t>
+        </is>
+      </c>
       <c r="O67" t="inlineStr"/>
       <c r="P67" t="inlineStr"/>
       <c r="Q67" t="inlineStr"/>
@@ -7016,21 +7004,21 @@
       <c r="S67" t="inlineStr"/>
       <c r="T67" t="inlineStr">
         <is>
-          <t>C日</t>
+          <t>休</t>
         </is>
       </c>
       <c r="U67" t="inlineStr"/>
-      <c r="V67" t="inlineStr">
-        <is>
-          <t>休</t>
-        </is>
-      </c>
+      <c r="V67" t="inlineStr"/>
       <c r="W67" t="inlineStr">
         <is>
-          <t>休</t>
-        </is>
-      </c>
-      <c r="X67" t="inlineStr"/>
+          <t>C夜</t>
+        </is>
+      </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>明</t>
+        </is>
+      </c>
       <c r="Y67" t="inlineStr"/>
       <c r="Z67" t="inlineStr">
         <is>
@@ -7045,20 +7033,16 @@
       <c r="AB67" t="inlineStr"/>
       <c r="AC67" t="inlineStr"/>
       <c r="AD67" t="inlineStr"/>
-      <c r="AE67" t="inlineStr">
-        <is>
-          <t>休</t>
-        </is>
-      </c>
+      <c r="AE67" t="inlineStr"/>
       <c r="AF67" t="inlineStr"/>
       <c r="AG67" t="inlineStr">
         <is>
-          <t>C夜</t>
+          <t>休</t>
         </is>
       </c>
       <c r="AH67" t="inlineStr">
         <is>
-          <t>明</t>
+          <t>休</t>
         </is>
       </c>
     </row>
@@ -7103,40 +7087,32 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>M夜</t>
-        </is>
-      </c>
-      <c r="N68" t="inlineStr">
-        <is>
-          <t>明</t>
-        </is>
-      </c>
-      <c r="O68" t="inlineStr">
-        <is>
-          <t>休</t>
-        </is>
-      </c>
-      <c r="P68" t="inlineStr">
-        <is>
-          <t>休</t>
-        </is>
-      </c>
+          <t>F日</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr"/>
+      <c r="O68" t="inlineStr"/>
+      <c r="P68" t="inlineStr"/>
       <c r="Q68" t="inlineStr"/>
       <c r="R68" t="inlineStr"/>
-      <c r="S68" t="inlineStr">
-        <is>
-          <t>M夜</t>
-        </is>
-      </c>
+      <c r="S68" t="inlineStr"/>
       <c r="T68" t="inlineStr">
         <is>
-          <t>明</t>
+          <t>休</t>
         </is>
       </c>
       <c r="U68" t="inlineStr"/>
       <c r="V68" t="inlineStr"/>
-      <c r="W68" t="inlineStr"/>
-      <c r="X68" t="inlineStr"/>
+      <c r="W68" t="inlineStr">
+        <is>
+          <t>M夜</t>
+        </is>
+      </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>明</t>
+        </is>
+      </c>
       <c r="Y68" t="inlineStr"/>
       <c r="Z68" t="inlineStr">
         <is>
@@ -7149,8 +7125,16 @@
         </is>
       </c>
       <c r="AB68" t="inlineStr"/>
-      <c r="AC68" t="inlineStr"/>
-      <c r="AD68" t="inlineStr"/>
+      <c r="AC68" t="inlineStr">
+        <is>
+          <t>M夜</t>
+        </is>
+      </c>
+      <c r="AD68" t="inlineStr">
+        <is>
+          <t>明</t>
+        </is>
+      </c>
       <c r="AE68" t="inlineStr"/>
       <c r="AF68" t="inlineStr"/>
       <c r="AG68" t="inlineStr">
@@ -7160,7 +7144,7 @@
       </c>
       <c r="AH68" t="inlineStr">
         <is>
-          <t>M日</t>
+          <t>休</t>
         </is>
       </c>
     </row>
@@ -7191,17 +7175,25 @@
       </c>
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr"/>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>休</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>休</t>
+        </is>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr">
         <is>
-          <t>休</t>
+          <t>C夜</t>
         </is>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>休</t>
+          <t>明</t>
         </is>
       </c>
       <c r="N69" t="inlineStr"/>
@@ -7209,48 +7201,48 @@
       <c r="P69" t="inlineStr"/>
       <c r="Q69" t="inlineStr"/>
       <c r="R69" t="inlineStr"/>
-      <c r="S69" t="inlineStr">
-        <is>
-          <t>休</t>
-        </is>
-      </c>
+      <c r="S69" t="inlineStr"/>
       <c r="T69" t="inlineStr">
         <is>
           <t>休</t>
         </is>
       </c>
-      <c r="U69" t="inlineStr"/>
-      <c r="V69" t="inlineStr"/>
+      <c r="U69" t="inlineStr">
+        <is>
+          <t>C夜</t>
+        </is>
+      </c>
+      <c r="V69" t="inlineStr">
+        <is>
+          <t>明</t>
+        </is>
+      </c>
       <c r="W69" t="inlineStr"/>
       <c r="X69" t="inlineStr"/>
       <c r="Y69" t="inlineStr"/>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>C夜</t>
+          <t>休</t>
         </is>
       </c>
       <c r="AA69" t="inlineStr">
         <is>
-          <t>明</t>
+          <t>休</t>
         </is>
       </c>
       <c r="AB69" t="inlineStr"/>
       <c r="AC69" t="inlineStr">
         <is>
-          <t>休</t>
-        </is>
-      </c>
-      <c r="AD69" t="inlineStr"/>
-      <c r="AE69" t="inlineStr">
-        <is>
           <t>C夜</t>
         </is>
       </c>
-      <c r="AF69" t="inlineStr">
+      <c r="AD69" t="inlineStr">
         <is>
           <t>明</t>
         </is>
       </c>
+      <c r="AE69" t="inlineStr"/>
+      <c r="AF69" t="inlineStr"/>
       <c r="AG69" t="inlineStr">
         <is>
           <t>休</t>
@@ -7287,12 +7279,12 @@
           <t>休</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr"/>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>休</t>
-        </is>
-      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>休</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
@@ -7307,36 +7299,36 @@
         </is>
       </c>
       <c r="N70" t="inlineStr"/>
-      <c r="O70" t="inlineStr">
+      <c r="O70" t="inlineStr"/>
+      <c r="P70" t="inlineStr">
         <is>
           <t>C夜</t>
         </is>
       </c>
-      <c r="P70" t="inlineStr">
+      <c r="Q70" t="inlineStr">
         <is>
           <t>明</t>
         </is>
       </c>
-      <c r="Q70" t="inlineStr"/>
       <c r="R70" t="inlineStr"/>
       <c r="S70" t="inlineStr"/>
       <c r="T70" t="inlineStr">
         <is>
-          <t>C夜</t>
-        </is>
-      </c>
-      <c r="U70" t="inlineStr">
-        <is>
-          <t>明</t>
-        </is>
-      </c>
+          <t>休</t>
+        </is>
+      </c>
+      <c r="U70" t="inlineStr"/>
       <c r="V70" t="inlineStr"/>
       <c r="W70" t="inlineStr"/>
       <c r="X70" t="inlineStr"/>
-      <c r="Y70" t="inlineStr"/>
+      <c r="Y70" t="inlineStr">
+        <is>
+          <t>C夜</t>
+        </is>
+      </c>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>休</t>
+          <t>明</t>
         </is>
       </c>
       <c r="AA70" t="inlineStr">
@@ -7348,7 +7340,11 @@
       <c r="AC70" t="inlineStr"/>
       <c r="AD70" t="inlineStr"/>
       <c r="AE70" t="inlineStr"/>
-      <c r="AF70" t="inlineStr"/>
+      <c r="AF70" t="inlineStr">
+        <is>
+          <t>休</t>
+        </is>
+      </c>
       <c r="AG70" t="inlineStr">
         <is>
           <t>休</t>
@@ -7356,7 +7352,7 @@
       </c>
       <c r="AH70" t="inlineStr">
         <is>
-          <t>休</t>
+          <t>C夜</t>
         </is>
       </c>
     </row>
@@ -7664,22 +7660,18 @@
         </is>
       </c>
       <c r="G74" t="inlineStr"/>
-      <c r="H74" t="inlineStr">
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr">
         <is>
           <t>C夜</t>
         </is>
       </c>
-      <c r="I74" t="inlineStr">
+      <c r="J74" t="inlineStr">
         <is>
           <t>明</t>
         </is>
       </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>休</t>
-        </is>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr">
         <is>
           <t>休</t>
@@ -7687,18 +7679,22 @@
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>C夜</t>
-        </is>
-      </c>
-      <c r="N74" t="inlineStr">
-        <is>
-          <t>明</t>
-        </is>
-      </c>
+          <t>休</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr"/>
       <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>C夜</t>
+        </is>
+      </c>
+      <c r="R74" t="inlineStr">
+        <is>
+          <t>明</t>
+        </is>
+      </c>
       <c r="S74" t="inlineStr"/>
       <c r="T74" t="inlineStr">
         <is>
@@ -7799,33 +7795,21 @@
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr"/>
       <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr">
-        <is>
-          <t>C夜</t>
-        </is>
-      </c>
-      <c r="R75" t="inlineStr">
-        <is>
-          <t>明</t>
-        </is>
-      </c>
+      <c r="Q75" t="inlineStr"/>
+      <c r="R75" t="inlineStr"/>
       <c r="S75" t="inlineStr"/>
       <c r="T75" t="inlineStr">
         <is>
-          <t>休</t>
-        </is>
-      </c>
-      <c r="U75" t="inlineStr"/>
-      <c r="V75" t="inlineStr">
-        <is>
           <t>C夜</t>
         </is>
       </c>
-      <c r="W75" t="inlineStr">
+      <c r="U75" t="inlineStr">
         <is>
           <t>明</t>
         </is>
       </c>
+      <c r="V75" t="inlineStr"/>
+      <c r="W75" t="inlineStr"/>
       <c r="X75" t="inlineStr"/>
       <c r="Y75" t="inlineStr"/>
       <c r="Z75" t="inlineStr">
@@ -7839,14 +7823,22 @@
         </is>
       </c>
       <c r="AB75" t="inlineStr"/>
-      <c r="AC75" t="inlineStr"/>
-      <c r="AD75" t="inlineStr"/>
-      <c r="AE75" t="inlineStr"/>
-      <c r="AF75" t="inlineStr">
-        <is>
-          <t>休</t>
-        </is>
-      </c>
+      <c r="AC75" t="inlineStr">
+        <is>
+          <t>休</t>
+        </is>
+      </c>
+      <c r="AD75" t="inlineStr">
+        <is>
+          <t>C夜</t>
+        </is>
+      </c>
+      <c r="AE75" t="inlineStr">
+        <is>
+          <t>明</t>
+        </is>
+      </c>
+      <c r="AF75" t="inlineStr"/>
       <c r="AG75" t="inlineStr">
         <is>
           <t>休</t>
@@ -7854,7 +7846,7 @@
       </c>
       <c r="AH75" t="inlineStr">
         <is>
-          <t>C夜</t>
+          <t>休</t>
         </is>
       </c>
     </row>
@@ -7877,36 +7869,36 @@
           <t>MR</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>休</t>
-        </is>
-      </c>
+      <c r="E76" t="inlineStr"/>
       <c r="F76" t="inlineStr">
         <is>
           <t>休</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr"/>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>休</t>
+        </is>
+      </c>
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr">
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>休</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
         <is>
           <t>M夜</t>
         </is>
       </c>
-      <c r="L76" t="inlineStr">
+      <c r="N76" t="inlineStr">
         <is>
           <t>明</t>
         </is>
       </c>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>休</t>
-        </is>
-      </c>
-      <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr"/>
       <c r="P76" t="inlineStr"/>
       <c r="Q76" t="inlineStr"/>
@@ -7921,7 +7913,11 @@
       <c r="V76" t="inlineStr"/>
       <c r="W76" t="inlineStr"/>
       <c r="X76" t="inlineStr"/>
-      <c r="Y76" t="inlineStr"/>
+      <c r="Y76" t="inlineStr">
+        <is>
+          <t>休</t>
+        </is>
+      </c>
       <c r="Z76" t="inlineStr">
         <is>
           <t>休</t>
@@ -7929,21 +7925,17 @@
       </c>
       <c r="AA76" t="inlineStr">
         <is>
-          <t>休</t>
-        </is>
-      </c>
-      <c r="AB76" t="inlineStr"/>
+          <t>M夜</t>
+        </is>
+      </c>
+      <c r="AB76" t="inlineStr">
+        <is>
+          <t>明</t>
+        </is>
+      </c>
       <c r="AC76" t="inlineStr"/>
-      <c r="AD76" t="inlineStr">
-        <is>
-          <t>M夜</t>
-        </is>
-      </c>
-      <c r="AE76" t="inlineStr">
-        <is>
-          <t>明</t>
-        </is>
-      </c>
+      <c r="AD76" t="inlineStr"/>
+      <c r="AE76" t="inlineStr"/>
       <c r="AF76" t="inlineStr"/>
       <c r="AG76" t="inlineStr">
         <is>
@@ -8142,13 +8134,21 @@
       <c r="E79" t="inlineStr"/>
       <c r="F79" t="inlineStr">
         <is>
-          <t>休</t>
+          <t>F日</t>
         </is>
       </c>
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="inlineStr"/>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>休</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>休</t>
+        </is>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr">
         <is>
@@ -8182,7 +8182,7 @@
       <c r="Y79" t="inlineStr"/>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>F日</t>
+          <t>休</t>
         </is>
       </c>
       <c r="AA79" t="inlineStr">
@@ -8190,11 +8190,7 @@
           <t>休</t>
         </is>
       </c>
-      <c r="AB79" t="inlineStr">
-        <is>
-          <t>休</t>
-        </is>
-      </c>
+      <c r="AB79" t="inlineStr"/>
       <c r="AC79" t="inlineStr"/>
       <c r="AD79" t="inlineStr"/>
       <c r="AE79" t="inlineStr"/>
@@ -8206,7 +8202,7 @@
       </c>
       <c r="AH79" t="inlineStr">
         <is>
-          <t>休</t>
+          <t>F日</t>
         </is>
       </c>
     </row>
@@ -8333,12 +8329,12 @@
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>ダ</t>
+          <t>A夜</t>
         </is>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>ダ</t>
+          <t>明</t>
         </is>
       </c>
       <c r="N81" t="inlineStr">
@@ -8488,12 +8484,12 @@
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>M夜</t>
+          <t>ダ</t>
         </is>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>明</t>
+          <t>ダ</t>
         </is>
       </c>
       <c r="N82" t="inlineStr">
@@ -8903,12 +8899,12 @@
       </c>
       <c r="AG84" t="inlineStr">
         <is>
-          <t>ダ</t>
+          <t>M夜</t>
         </is>
       </c>
       <c r="AH84" t="inlineStr">
         <is>
-          <t>ダ</t>
+          <t>明</t>
         </is>
       </c>
     </row>
@@ -9838,7 +9834,7 @@
       </c>
       <c r="AH90" t="inlineStr">
         <is>
-          <t>A夜</t>
+          <t>ダ</t>
         </is>
       </c>
     </row>
